--- a/BusinessData.xlsx
+++ b/BusinessData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Documents\Uni Stuff\Final Year\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Documents\Github\Track-and-Trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E73865-F455-42CB-9F99-AF022FA3CD1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6411AC52-62A9-42D3-A68C-37E0A0E0C7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D1C19499-3FC4-4E37-AF7A-B632A2AA4710}"/>
+    <workbookView xWindow="60900" yWindow="18645" windowWidth="22320" windowHeight="11805" xr2:uid="{D1C19499-3FC4-4E37-AF7A-B632A2AA4710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -48,63 +48,42 @@
     <t>Spencer White</t>
   </si>
   <si>
-    <t>070 7323 9085</t>
-  </si>
-  <si>
     <t>SpencerWhite@teleworm.us</t>
   </si>
   <si>
     <t>Harriet Hayes</t>
   </si>
   <si>
-    <t>078 5521 6854</t>
-  </si>
-  <si>
     <t>HarrietHayes@dayrep.com</t>
   </si>
   <si>
     <t>Samuel Barry</t>
   </si>
   <si>
-    <t>078 2073 2490</t>
-  </si>
-  <si>
     <t>SamuelBarry@dayrep.com</t>
   </si>
   <si>
     <t>Michael Knight</t>
   </si>
   <si>
-    <t>078 4091 9990</t>
-  </si>
-  <si>
     <t>MichaelKnight@dayrep.com</t>
   </si>
   <si>
     <t>Georgina Clark</t>
   </si>
   <si>
-    <t>070 6320 6303</t>
-  </si>
-  <si>
     <t>GeorginaClark@rhyta.com</t>
   </si>
   <si>
     <t>Tia Jenkins</t>
   </si>
   <si>
-    <t>079 5995 7090</t>
-  </si>
-  <si>
     <t>TiaJenkins@teleworm.us</t>
   </si>
   <si>
     <t>Sam Vincent</t>
   </si>
   <si>
-    <t>079 1340 8131</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -114,61 +93,40 @@
     <t>Chelsea Carter</t>
   </si>
   <si>
-    <t>078 0773 1527</t>
-  </si>
-  <si>
     <t>ChelseaCarter@rhyta.com</t>
   </si>
   <si>
     <t>Grace Dean</t>
   </si>
   <si>
-    <t>070 0443 2571</t>
-  </si>
-  <si>
     <t>GraceDean@rhyta.com</t>
   </si>
   <si>
     <t>Tegan Norris</t>
   </si>
   <si>
-    <t>070 2036 8479</t>
-  </si>
-  <si>
     <t>TeganNorris@teleworm.us</t>
   </si>
   <si>
     <t>Jayden Kirby</t>
   </si>
   <si>
-    <t>079 3534 2477</t>
-  </si>
-  <si>
     <t>JaydenKirby@rhyta.com</t>
   </si>
   <si>
     <t>William Sinclair</t>
   </si>
   <si>
-    <t>078 7733 1843</t>
-  </si>
-  <si>
     <t>WilliamSinclair@armyspy.com</t>
   </si>
   <si>
     <t>Elise Thompson</t>
   </si>
   <si>
-    <t>078 4363 5209</t>
-  </si>
-  <si>
     <t>EliseThompson@dayrep.com</t>
   </si>
   <si>
     <t>Charles Harrison</t>
-  </si>
-  <si>
-    <t>078 0388 4200</t>
   </si>
   <si>
     <t>CharlesHarrison@armyspy.com</t>
@@ -178,6 +136,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,12 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0C189E-27ED-448B-B46F-50153C8FD3DF}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,9 +509,10 @@
     <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,206 +523,220 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>7073239085</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4">
+        <v>10.01</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>7855216854</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2">
+        <v>7820732490</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2">
+        <v>7840919990</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7063206303</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="4">
+        <v>11.03</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="2">
+        <v>7959957090</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="4">
+        <v>11.04</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2">
+        <v>7913408131</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.4604166666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="D8" s="4">
+        <v>11.15</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2">
+        <v>7807731527</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="4">
+        <v>11.32</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.46111111111111108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="2">
+        <v>7004432571</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D10" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B11" s="2">
+        <v>7020368479</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11.59</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B12" s="2">
+        <v>7935342477</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D12" s="4">
+        <v>12.02</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B13" s="2">
+        <v>7877331843</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.48055555555555557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D13" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2">
+        <v>7843635209</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D14" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="2">
+        <v>7803884200</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.4993055555555555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.50138888888888888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.50277777777777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
